--- a/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_Nord-Picardie/Société_linnéenne_Nord-Picardie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_Nord-Picardie/Société_linnéenne_Nord-Picardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_Nord-Picardie</t>
+          <t>Société_linnéenne_Nord-Picardie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société linnéenne Nord-Picardie est une société savante créée en 1838 à Abbeville à l'initiative du médecin et préhistorien Casimir Picard (1806-1841). Elle portait alors le nom de Société linnéenne du Nord de la France. Le premier président fut M. de Clermont-Tonnerre[Lequel ?].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_Nord-Picardie</t>
+          <t>Société_linnéenne_Nord-Picardie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1841, le décès prématuré de Casimir Picard entraîne un net ralentissement des activités de la société puis sa dissolution en 1847.
 Celle-ci renaît le 12 novembre 1865 à Amiens. Le premier président en est M. Le Correur. Trois comités la constituent alors : botanique, zoologie et géologie.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_Nord-Picardie</t>
+          <t>Société_linnéenne_Nord-Picardie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Membres de la Société linnéenne Nord-Picardie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans cette liste figurent les membres ayant joué ou jouant encore un rôle éminent dans le développement des études naturalistes dans le Nord et en Picardie :
 Marcel Bon, mycologue ;
@@ -562,7 +578,7 @@
 Pierre Royer, surtout ornithologue ;
 François Sueur (1953-), surtout ornithologue ;
 Jacques Vast, botaniste et mycologue;
-Jean-Roger Wattez [1], botaniste spécialiste des bryophytes et des associations végétales ;
+Jean-Roger Wattez , botaniste spécialiste des bryophytes et des associations végétales ;
 Jean Antoine Dours (1824-1874), entomologiste spécialiste des hyménoptères.</t>
         </is>
       </c>
